--- a/examples/XlsxPeasant_03_fontsTest.xlsx
+++ b/examples/XlsxPeasant_03_fontsTest.xlsx
@@ -1686,7 +1686,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A8EDB1-C317-4C33-B3B2-07BD2701C5A3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA506FBF-9212-4C3F-9255-7D9435A5FBBF}">
   <dimension ref="B1:I20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
